--- a/source/learning_paths.xlsx
+++ b/source/learning_paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA71124-171D-5243-9E3B-1C607E72EF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D272BCC-A07F-694E-958A-5C3AAFF166DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="3020" windowWidth="27640" windowHeight="16940" xr2:uid="{C26384D4-3035-7642-8A9A-54178675193D}"/>
+    <workbookView xWindow="2000" yWindow="2660" windowWidth="34160" windowHeight="18740" xr2:uid="{C26384D4-3035-7642-8A9A-54178675193D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,11 +33,151 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>Topic No.</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Setting up Data Science Working Environment</t>
+  </si>
+  <si>
+    <t>Python Basics</t>
+  </si>
+  <si>
+    <t>Numpy</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>Modelling</t>
+  </si>
+  <si>
+    <t>Working with Big Data</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Optimized Programming</t>
+  </si>
+  <si>
+    <t>Sub-Topics</t>
+  </si>
+  <si>
+    <t>Plotting</t>
+  </si>
+  <si>
+    <t>Tutorials/Exercises</t>
+  </si>
+  <si>
+    <t>- Numbers in Computers
+- Numerical Operations</t>
+  </si>
+  <si>
+    <t>- Objects v. Variables
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
+- `Reading Python Errors (Tracebacks) &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Understanding Performance &lt;performance_understanding.ipynb&gt;`_
+- `Improving Performance &lt;performance_solutions.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>`statsmodels &lt;exercises/Exercise_statsmodels.ipynb&gt;`_
+`scikitlearn &lt;exercises/Exercise_scikit_learn.ipynb&gt;`_
+`Writing your own model &lt;exercises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Command Line Basics &lt;command_line_part1.ipynb&gt;`_
+- `Installing Python &lt;setup_environment.ipynb&gt;`_
+- `Jupyter Tutorial &lt;jupyter.ipynb&gt;`_
+- `Git and Github &lt;git_and_github.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `What is Big Data? &lt;what_is_big_data.ipynb&gt;`_
+- `Strategies for Big Data &lt;big_data_strategies.ipynb&gt;`_
+- `Parquet Format &lt;parquet.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `CLI &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_
+- `Advanced CLI &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
+- `Jupyter &lt;exercises/Exercise_jupyterlab.ipynb&gt;`_
+- `Git Part 1 &lt;exercises/Exercise_git.ipynb&gt;`_
+- `Git Part 2 &lt;exercises/Exercise_git_2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- `Pandas 1: Series &lt;pandas_series.ipynb&gt;`_
+- `Pandas 2: DataFrames &lt;pandas_dataframes.ipynb&gt;`_
+- Indices
+- Missing Data
+- `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_
+- Merging
+- Cleaning Data
+- Reshaping
+- Groupby
+</t>
+  </si>
+  <si>
+    <t>- `Series &lt;exercises/Exercise_series.ipynb&gt;`_
+- `DataFrames &lt;exercises/Exercise_dataframe.ipynb&gt;`_
+- `Indices &lt;exercises/Exercise_indices.ipynb&gt;`_
+- `Missing Data &lt;exercises/Exercise_missing.ipynb&gt;`_
+- `Data Cleaning &lt;exercises/Exercise_cleaning.ipynb&gt;`_
+- `Data Merging &lt;exercises/Exercise_merging.ipynb&gt;`_
+- `Groupby &lt;exercises/Exercise_groupby.ipynb&gt;`_
+- `Reshaping &lt;exercises/Exercise_reshaping.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Plotting 1 &lt;exercises/Exercise_plotting_part1.ipynb&gt;`_
+- `Plotting 2 &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Plotting in Python, Part 1 &lt;plotting_part1.ipynb&gt;`_ 
+- `Plotting in Python, Part 2 &lt;plotting_part2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- statsmodels
+- scikit-learn</t>
+  </si>
+  <si>
+    <t>- `What is The Cloud &lt;cloud_what_is_it.ipynb&gt;`_ 
+- `Storage on Azure &lt;cloud_storage_on_azure.ipynb&gt;`_ 
+- `Setup a VM on Azure &lt;cloud_vm_on_azure.ipynb&gt;`_ 
+- `Setup a Cluster on Azure &lt;cloud_cluster_on_azure.ipynb&gt;`_ 
+- `Dask on Azure &lt;cloud_dask.ipynb&gt;`_
+- `More Azure Concepts &lt;cloud_authentication.ipynb&gt;`_ 
+- `Azure from Command Line &lt;cloud_azure_cli.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Big Data &lt;exercises/Exercise_bigdata.ipynb&gt;`_
+- `Dask &lt;exercises/Exercise_dask.ipynb&gt;`_ 
+- `Dask 2&lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,8 +204,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +530,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0227C4C1-4A36-AC43-BE45-54CC162253E2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="88" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>